--- a/4 Bring Up/Bring Up Change List REV 1.xlsx
+++ b/4 Bring Up/Bring Up Change List REV 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>Author</t>
   </si>
@@ -130,13 +130,34 @@
   </si>
   <si>
     <t>Add test points and other connections directly to board layout</t>
+  </si>
+  <si>
+    <t>Change Solder Mount components to bottom layer</t>
+  </si>
+  <si>
+    <t>Move each solder mount component to bottom layer</t>
+  </si>
+  <si>
+    <t>Arduino DDS shield Rev 6.PcbDoc</t>
+  </si>
+  <si>
+    <t>Arduino DDS Shield Rev 6.SchDoc</t>
+  </si>
+  <si>
+    <t>DIP switch 8position.lib</t>
+  </si>
+  <si>
+    <t>Time to Complete</t>
+  </si>
+  <si>
+    <t>Hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,16 +194,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -190,15 +235,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -219,10 +387,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,7 +757,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>42661</v>
+        <v>42663</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -627,7 +822,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -643,201 +838,288 @@
       <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
     </row>
   </sheetData>

--- a/4 Bring Up/Bring Up Change List REV 1.xlsx
+++ b/4 Bring Up/Bring Up Change List REV 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
   <si>
     <t>Author</t>
   </si>
@@ -151,6 +151,51 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>REV 2</t>
+  </si>
+  <si>
+    <t>Change Board outline for attiny85 input pin to pin 7 (rx pin on attiny)</t>
+  </si>
+  <si>
+    <t>Change Chebyshev filter values to coincide with Product def</t>
+  </si>
+  <si>
+    <t>Change placement of 5k POT due to placement conflicts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source better 100k POT that has a plunger </t>
+  </si>
+  <si>
+    <t>Add in Audio Amp for small signal output</t>
+  </si>
+  <si>
+    <t>Change the pad libarary of the 8 DIP switch so signals coming in connect across to the pads going out</t>
+  </si>
+  <si>
+    <t>Change the 3&amp;2 header placement on the board outline and retrace board</t>
+  </si>
+  <si>
+    <t>Create hole for speaker housing and source glue to keep speaker in place</t>
+  </si>
+  <si>
+    <t>Add programming header into board for easier prototyping</t>
+  </si>
+  <si>
+    <t>Make sure all ground planes are connected and not isolated</t>
+  </si>
+  <si>
+    <t>Add blocking capacitor to remove DC signal offset post Filter</t>
+  </si>
+  <si>
+    <t>Product definition rework to coincide with design [LED is controlled by microcontroller and not just the state switch]</t>
+  </si>
+  <si>
+    <t>Bring up code to accurately have a frequency equal 1-1 to output frequency</t>
+  </si>
+  <si>
+    <t>Code currently cuts off at around 5kHz</t>
   </si>
 </sst>
 </file>
@@ -366,7 +411,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -412,6 +457,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -754,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -785,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>42663</v>
+        <v>42685</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1113,18 +1163,191 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/4 Bring Up/Bring Up Change List REV 1.xlsx
+++ b/4 Bring Up/Bring Up Change List REV 1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="26020" windowHeight="15260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -282,23 +282,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -306,11 +306,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -319,7 +319,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -327,17 +327,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -347,7 +347,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -355,12 +355,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -369,35 +369,35 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,20 +806,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="29.375" customWidth="1"/>
-    <col min="3" max="3" width="50.125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="88.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -841,7 +841,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -861,7 +861,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="48">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -893,7 +893,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
@@ -950,7 +950,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
@@ -969,7 +969,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -1083,7 +1083,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="15" t="s">
         <v>9</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="15" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16" thickBot="1">
       <c r="A19" s="15" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1140,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16" thickBot="1">
       <c r="A20" s="20" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="25" t="s">
         <v>44</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="25" t="s">
         <v>44</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="25" t="s">
         <v>44</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="25" t="s">
         <v>44</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="25" t="s">
         <v>44</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="25" t="s">
         <v>44</v>
       </c>
@@ -1241,7 +1241,7 @@
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="25" t="s">
         <v>44</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="25" t="s">
         <v>44</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="25" t="s">
         <v>44</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="25" t="s">
         <v>44</v>
       </c>
@@ -1293,7 +1293,7 @@
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="25" t="s">
         <v>44</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="25" t="s">
         <v>44</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="25" t="s">
         <v>44</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="25" t="s">
         <v>44</v>
       </c>
@@ -1347,7 +1347,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/4 Bring Up/Bring Up Change List REV 1.xlsx
+++ b/4 Bring Up/Bring Up Change List REV 1.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zache_000\Documents\GitHub\Arduino-DDS\4 Bring Up\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>Author</t>
   </si>
@@ -196,6 +201,42 @@
   </si>
   <si>
     <t>Code currently cuts off at around 5kHz</t>
+  </si>
+  <si>
+    <t>arduino pin rx is close to wire above. .5mm make larger</t>
+  </si>
+  <si>
+    <t>pins along 9 8 arduino are close .3mm</t>
+  </si>
+  <si>
+    <t>pots have the holders so don’t short. At the sides of all 4 sidesin the middle about a third of the way</t>
+  </si>
+  <si>
+    <t>Remove the 0ohm resistors and place the solder jumpers. The sparkfun library has a library already</t>
+  </si>
+  <si>
+    <t>the current arduino library is missing 2 hold on each side, add this and we will have an easier connection the board</t>
+  </si>
+  <si>
+    <t>make the components seperated by .6 min or prefered 1mm trace to get rid of all the iffy situations</t>
+  </si>
+  <si>
+    <t>double check the button switch new library look</t>
+  </si>
+  <si>
+    <t>double check if the parts footprint is close</t>
+  </si>
+  <si>
+    <t>ask malcom if it is bad to short to the top board</t>
+  </si>
+  <si>
+    <t>ic socket to buy</t>
+  </si>
+  <si>
+    <t>double check the static parts pads. LED</t>
+  </si>
+  <si>
+    <t>.024 traces to make things fit better</t>
   </si>
 </sst>
 </file>
@@ -411,7 +452,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -462,6 +503,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -477,6 +521,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -804,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C63" sqref="C60:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1345,6 +1392,134 @@
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="28"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="28"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="28"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="28"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="28"/>
+    </row>
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="28"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/4 Bring Up/Bring Up Change List REV 1.xlsx
+++ b/4 Bring Up/Bring Up Change List REV 1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="26020" windowHeight="15260" tabRatio="500"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -282,23 +282,23 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -306,11 +306,11 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -319,7 +319,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -327,17 +327,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -347,7 +347,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -355,12 +355,12 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -369,35 +369,35 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,20 +806,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="88.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="50.125" customWidth="1"/>
     <col min="4" max="4" width="38.5" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -841,7 +841,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -861,7 +861,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="48">
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -893,7 +893,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
@@ -950,7 +950,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
@@ -969,7 +969,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -1083,7 +1083,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>9</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="16" thickBot="1">
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1140,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="16" thickBot="1">
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>44</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>44</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>44</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>44</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>44</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>44</v>
       </c>
@@ -1241,7 +1241,7 @@
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>44</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>44</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>44</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>44</v>
       </c>
@@ -1293,7 +1293,7 @@
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>44</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>44</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>44</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>44</v>
       </c>
@@ -1347,7 +1347,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
